--- a/data/trans_camb/IMC_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Dificultad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/IMC_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.030727473643775</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.924003454313049</v>
+        <v>6.924003454313052</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.187384353049743</v>
@@ -664,7 +664,7 @@
         <v>3.437925283065457</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.819280570061543</v>
+        <v>4.819280570061546</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2121797202073957</v>
+        <v>0.3217970768276039</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3489351788731704</v>
+        <v>0.3268938327719515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.873070532536774</v>
+        <v>1.317410338349128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.474600809798754</v>
+        <v>1.267449314524861</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3131756180000922</v>
+        <v>0.1113713273330635</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.1355586472550291</v>
+        <v>-0.2186325277362121</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.434402610607374</v>
+        <v>1.30698606651481</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9907150133387632</v>
+        <v>0.6819713770127515</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.766796796591798</v>
+        <v>1.661769898752373</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.152719755394882</v>
+        <v>8.440651290909173</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.328190747570751</v>
+        <v>7.617460096824148</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.1853962078626</v>
+        <v>11.76787496216861</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.691877117133092</v>
+        <v>8.695557552053966</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.960196742069649</v>
+        <v>7.403119545924132</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.00507972295294</v>
+        <v>7.795794389173323</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.92029884336523</v>
+        <v>6.987310492716429</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.351541888913189</v>
+        <v>5.869186621845997</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.092233600159821</v>
+        <v>8.288262705973642</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2738492443503789</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4704195771710011</v>
+        <v>0.4704195771710013</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2527792111734181</v>
@@ -769,7 +769,7 @@
         <v>0.1881554321898597</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2637561156348314</v>
+        <v>0.2637561156348315</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01341837607795788</v>
+        <v>0.01954085517132651</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01922904158855963</v>
+        <v>0.01695418902845283</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1183023212075777</v>
+        <v>0.07513954720744206</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06907333517765187</v>
+        <v>0.05061252236591594</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01037302281034353</v>
+        <v>0.003939984709960547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.00855486160763742</v>
+        <v>-0.009766553453148506</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07692359080392737</v>
+        <v>0.06325553192687908</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04852265723509217</v>
+        <v>0.02840677356207854</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.08982504318886186</v>
+        <v>0.0849865846727251</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6629742760620907</v>
+        <v>0.6929553071628044</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5890101336638972</v>
+        <v>0.6033914136596773</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9409854849537928</v>
+        <v>0.9264743975201518</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4780197131147671</v>
+        <v>0.4658847417886882</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4266092347200938</v>
+        <v>0.3964850449328579</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4246900338822173</v>
+        <v>0.4135400224024328</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4205887788812915</v>
+        <v>0.4137874386623672</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3734812104575735</v>
+        <v>0.3456523716413952</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4948817069291816</v>
+        <v>0.4971877668812281</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.253787947684208</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.381211883694368</v>
+        <v>6.381211883694363</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.181416502970805</v>
@@ -878,7 +878,7 @@
         <v>3.026078336445215</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.182720878113897</v>
+        <v>5.182720878113894</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6965091311638237</v>
+        <v>0.2918674755138406</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.04002965363400885</v>
+        <v>-0.1359147795987982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.282491654112283</v>
+        <v>2.979643408925924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.402354304061374</v>
+        <v>3.032196569207215</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8261984077819627</v>
+        <v>-0.5680587692387059</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.02341997596647</v>
+        <v>0.8992833885760902</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.591432639822331</v>
+        <v>2.734725935999341</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7203211010910746</v>
+        <v>0.824020881941414</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.924323523942014</v>
+        <v>3.091628347605301</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.002971295542379</v>
+        <v>6.862502314625115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.390587666193016</v>
+        <v>6.54045641345959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.744968670716686</v>
+        <v>9.906854573766106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.827625040811499</v>
+        <v>10.00891213543128</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.069090009478596</v>
+        <v>6.199403338456774</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.754975720066257</v>
+        <v>6.829816037768788</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.41099393702887</v>
+        <v>7.440595331520454</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.395937120984533</v>
+        <v>5.449219574213675</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.361649722683635</v>
+        <v>7.304521280560862</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2603217264834655</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5105336061627538</v>
+        <v>0.5105336061627533</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4067541842510348</v>
@@ -983,7 +983,7 @@
         <v>0.218779611029438</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3747006956600755</v>
+        <v>0.3747006956600752</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05068393536686513</v>
+        <v>0.02056654234010098</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.003629198488226779</v>
+        <v>-0.008907681408509234</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2162706295063351</v>
+        <v>0.2079435539959352</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1477454303533407</v>
+        <v>0.1781620215479063</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04580500755972703</v>
+        <v>-0.03329440641721421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05543331193051228</v>
+        <v>0.05277587607276836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1792940588828502</v>
+        <v>0.1812268880355453</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04700510002864867</v>
+        <v>0.05433989641996781</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1936309171544466</v>
+        <v>0.2071488129227894</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6422914134427202</v>
+        <v>0.6264767226816489</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5697106111800589</v>
+        <v>0.6108905150097595</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8387727241577411</v>
+        <v>0.87526944974125</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7247070656175222</v>
+        <v>0.737858035365087</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4497666690634216</v>
+        <v>0.4679304863388908</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4928988437601743</v>
+        <v>0.5135349934659842</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5802762832392304</v>
+        <v>0.5827238828031436</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.419779512562981</v>
+        <v>0.4318442950059868</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5821614058898472</v>
+        <v>0.5730059680669585</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.755955152704657</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.581694323622793</v>
+        <v>3.58169432362279</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.945876589221191</v>
@@ -1092,7 +1092,7 @@
         <v>3.37459644090897</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.549735498999726</v>
+        <v>3.549735498999729</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.721790508041677</v>
+        <v>1.736525820532961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.597910393992924</v>
+        <v>1.717633191237792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7290694862512023</v>
+        <v>0.8176256986884952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.515578092085291</v>
+        <v>3.702452474380817</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.304088387949731</v>
+        <v>-1.624593406140258</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8223431364592156</v>
+        <v>0.7154758466847031</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.446260703137186</v>
+        <v>3.706857558036189</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.129764694255366</v>
+        <v>1.144492902167808</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.521496490119677</v>
+        <v>1.583772619845291</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.814143379371112</v>
+        <v>8.193875524293734</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.153726199639518</v>
+        <v>7.822339745575318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.268245237188963</v>
+        <v>6.571363242316905</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.21222006917952</v>
+        <v>10.26543647419991</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.101106115729643</v>
+        <v>4.847160157756165</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.082359687699396</v>
+        <v>6.205572386503719</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.204360867336167</v>
+        <v>8.337284749640061</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.697780763790788</v>
+        <v>5.636955281094985</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.6245288587129</v>
+        <v>5.642257582916977</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1549746485924298</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3161081980447956</v>
+        <v>0.3161081980447953</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5298914505113128</v>
@@ -1197,7 +1197,7 @@
         <v>0.3007411566875099</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3163494001719331</v>
+        <v>0.3163494001719334</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1332497116376112</v>
+        <v>0.1393631481912774</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1284670310728369</v>
+        <v>0.1398941315000139</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.05439974791789409</v>
+        <v>0.06488221645095765</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2731967363611189</v>
+        <v>0.2922118579632798</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1063635273689199</v>
+        <v>-0.1315912120910756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06129500782491392</v>
+        <v>0.05846514087624746</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2676603249314897</v>
+        <v>0.3050912893269022</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09074042891977338</v>
+        <v>0.09654325057420811</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1285605831478559</v>
+        <v>0.1303686382304367</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7971906919686794</v>
+        <v>0.8010381052001567</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8458717888691679</v>
+        <v>0.7797359206332282</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6395080430009614</v>
+        <v>0.6915647135313452</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.039670752709131</v>
+        <v>1.018076869711228</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5100705084625605</v>
+        <v>0.4818337481065035</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6009627765291802</v>
+        <v>0.6254823304740276</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7931916429321614</v>
+        <v>0.8116794084974661</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.55429341330945</v>
+        <v>0.5587629936508022</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5625982582433667</v>
+        <v>0.5643184013215502</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.355861633186106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.770530680391093</v>
+        <v>4.77053068039109</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.591196208782086</v>
@@ -1297,7 +1297,7 @@
         <v>5.944218192124444</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.104563615227651</v>
+        <v>4.104563615227653</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.929027682123339</v>
@@ -1306,7 +1306,7 @@
         <v>6.066778765258916</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.372238514965061</v>
+        <v>4.372238514965058</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.049871745513041</v>
+        <v>-1.915875233849806</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.793983691154233</v>
+        <v>1.756305363696129</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8104557514074816</v>
+        <v>0.9069723817936273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8563895482542635</v>
+        <v>1.073113025044913</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5386041024636233</v>
+        <v>1.222257679367856</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.154440551230641</v>
+        <v>0.6072856367445235</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9094634803787113</v>
+        <v>1.013406471101226</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.689800178022177</v>
+        <v>3.085058939262317</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.681001520294542</v>
+        <v>1.739435064566216</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.614884024887617</v>
+        <v>6.750319407291398</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.93120397639551</v>
+        <v>11.45857677118987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.561346895390196</v>
+        <v>8.663874289692975</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.01414594736179</v>
+        <v>10.36648696048855</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.43293752664091</v>
+        <v>10.51167945840005</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.75546752821025</v>
+        <v>7.651855035220533</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.210902199019241</v>
+        <v>7.168363789774282</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.500926221026521</v>
+        <v>9.528441389835542</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.244105093950007</v>
+        <v>7.010958041860809</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.6139958917441042</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4608480184504939</v>
+        <v>0.4608480184504936</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6442253499148723</v>
@@ -1402,7 +1402,7 @@
         <v>0.6849010304408313</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4729334891010522</v>
+        <v>0.4729334891010525</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4080527043851012</v>
@@ -1411,7 +1411,7 @@
         <v>0.6300707661932664</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4540827641316135</v>
+        <v>0.4540827641316131</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1721171007078022</v>
+        <v>-0.1509187794045435</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1359867583529067</v>
+        <v>0.1159369368420596</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05029165986002557</v>
+        <v>0.04978319601508079</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08150129560082572</v>
+        <v>0.0684676576939095</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03729138022726379</v>
+        <v>0.1031867627319024</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01057263019478048</v>
+        <v>0.03034976065064348</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08126960775428664</v>
+        <v>0.07557170972079102</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.233371133978158</v>
+        <v>0.2646324549875628</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1390416741930023</v>
+        <v>0.1453473826346418</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8410156910343358</v>
+        <v>0.7965694683454363</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.291585415293806</v>
+        <v>1.332059166736728</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.093592004371829</v>
+        <v>1.070663131371667</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.643647213680708</v>
+        <v>1.650742550321689</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.608779299353264</v>
+        <v>1.572866718723336</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.270182906828212</v>
+        <v>1.200110336156922</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8952738792578434</v>
+        <v>0.8603083688707459</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.157409866646034</v>
+        <v>1.182931018634223</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9025228073250114</v>
+        <v>0.8919644715519413</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.839673768002421</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.809077235157648</v>
+        <v>4.809077235157646</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.239523197066313</v>
@@ -1511,7 +1511,7 @@
         <v>3.90331501043226</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.383848045522291</v>
+        <v>2.383848045522294</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.318327782060164</v>
@@ -1520,7 +1520,7 @@
         <v>4.367314634266234</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.585033101725441</v>
+        <v>3.585033101725435</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.640612820560011</v>
+        <v>2.535466612091796</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.864558127538458</v>
+        <v>2.921692914095951</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.94494402095029</v>
+        <v>3.128996684652309</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.453508089636908</v>
+        <v>4.303926188092747</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.966191464915685</v>
+        <v>2.063909616953116</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7860405083040792</v>
+        <v>0.7021478538361767</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.941798501810959</v>
+        <v>4.069118504154112</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.074182059017451</v>
+        <v>2.993714152686645</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.368065878022376</v>
+        <v>2.420937409402344</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.277059791618766</v>
+        <v>6.21188243785107</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.5862389822428</v>
+        <v>6.64831625738387</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.549531859685516</v>
+        <v>6.754802993329119</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.079439408550392</v>
+        <v>7.979162319747121</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.80003827153919</v>
+        <v>5.744927425309699</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.007908121136029</v>
+        <v>3.957408676306796</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.683319861293407</v>
+        <v>6.658574213351971</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.693489907296755</v>
+        <v>5.647066031840335</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.735313218984684</v>
+        <v>4.771402242666371</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3993148077937255</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3967903300669741</v>
+        <v>0.3967903300669739</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.420640578639667</v>
@@ -1616,7 +1616,7 @@
         <v>0.2631439346796732</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.160708308886327</v>
+        <v>0.1607083088863272</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3942059182452548</v>
@@ -1625,7 +1625,7 @@
         <v>0.3237147739321841</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2657303806231106</v>
+        <v>0.2657303806231102</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2014361215651697</v>
+        <v>0.1990933302549417</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2191757833309719</v>
+        <v>0.2142745426860637</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2202592239720522</v>
+        <v>0.2358948520092699</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2868352793722315</v>
+        <v>0.2761043243407502</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1248469357097809</v>
+        <v>0.1325046653633667</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05210440004307314</v>
+        <v>0.04107065102815498</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.282626146494154</v>
+        <v>0.2869558339406934</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2166569874879613</v>
+        <v>0.2103115043719682</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1653286001559508</v>
+        <v>0.1724390442331024</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5518484459011255</v>
+        <v>0.5508136574773395</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5776855882956037</v>
+        <v>0.5737982274443519</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5735261656516522</v>
+        <v>0.5871423238210036</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5792317910876714</v>
+        <v>0.5805686267500334</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4144740274882706</v>
+        <v>0.4160713545960533</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2934743517651236</v>
+        <v>0.2834726902569707</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5228299557579028</v>
+        <v>0.5158010401391891</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4415466054447041</v>
+        <v>0.4418332401870684</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3654339923964542</v>
+        <v>0.3692610611161797</v>
       </c>
     </row>
     <row r="34">
